--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H2">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I2">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J2">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N2">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q2">
-        <v>0.5009759468253333</v>
+        <v>0.470495650624</v>
       </c>
       <c r="R2">
-        <v>4.508783521428</v>
+        <v>4.234460855616</v>
       </c>
       <c r="S2">
-        <v>1.853268453384625E-06</v>
+        <v>1.086725011763535E-06</v>
       </c>
       <c r="T2">
-        <v>1.853268453384624E-06</v>
+        <v>1.086725011763534E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H3">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I3">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J3">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N3">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O3">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P3">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q3">
-        <v>35.60786082657155</v>
+        <v>296.410816290964</v>
       </c>
       <c r="R3">
-        <v>320.470747439144</v>
+        <v>2667.697346618676</v>
       </c>
       <c r="S3">
-        <v>0.000131724737645744</v>
+        <v>0.0006846334230580569</v>
       </c>
       <c r="T3">
-        <v>0.000131724737645744</v>
+        <v>0.0006846334230580567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H4">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I4">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J4">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N4">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O4">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P4">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q4">
-        <v>4217.159497339514</v>
+        <v>13854.93714463511</v>
       </c>
       <c r="R4">
-        <v>37954.43547605562</v>
+        <v>124694.434301716</v>
       </c>
       <c r="S4">
-        <v>0.01560060659366464</v>
+        <v>0.0320013728320714</v>
       </c>
       <c r="T4">
-        <v>0.01560060659366464</v>
+        <v>0.03200137283207138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H5">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I5">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J5">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N5">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q5">
-        <v>1.689016978267555</v>
+        <v>63.241857185092</v>
       </c>
       <c r="R5">
-        <v>15.201152804408</v>
+        <v>569.1767146658279</v>
       </c>
       <c r="S5">
-        <v>6.248207928724448E-06</v>
+        <v>0.00014607256815715</v>
       </c>
       <c r="T5">
-        <v>6.248207928724447E-06</v>
+        <v>0.00014607256815715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>1609.262329</v>
       </c>
       <c r="I6">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J6">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N6">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q6">
-        <v>21.53943985288867</v>
+        <v>8.508348740348445</v>
       </c>
       <c r="R6">
-        <v>193.854958675998</v>
+        <v>76.575138663136</v>
       </c>
       <c r="S6">
-        <v>7.968119953841173E-05</v>
+        <v>1.9652116598061E-05</v>
       </c>
       <c r="T6">
-        <v>7.968119953841171E-05</v>
+        <v>1.965211659806099E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1609.262329</v>
       </c>
       <c r="I7">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J7">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N7">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O7">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P7">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q7">
-        <v>1530.958484981667</v>
+        <v>5360.233600608405</v>
       </c>
       <c r="R7">
-        <v>13778.62636483501</v>
+        <v>48242.10240547565</v>
       </c>
       <c r="S7">
-        <v>0.005663499578448358</v>
+        <v>0.01238077315900978</v>
       </c>
       <c r="T7">
-        <v>0.005663499578448358</v>
+        <v>0.01238077315900978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1609.262329</v>
       </c>
       <c r="I8">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J8">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N8">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O8">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P8">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q8">
-        <v>181316.5959735241</v>
+        <v>250549.8974237487</v>
       </c>
       <c r="R8">
-        <v>1631849.363761717</v>
+        <v>2254949.076813738</v>
       </c>
       <c r="S8">
-        <v>0.6707474271413976</v>
+        <v>0.5787063915767613</v>
       </c>
       <c r="T8">
-        <v>0.6707474271413976</v>
+        <v>0.5787063915767612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>1609.262329</v>
       </c>
       <c r="I9">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J9">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N9">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q9">
-        <v>72.61921424460311</v>
+        <v>1143.653028895027</v>
       </c>
       <c r="R9">
-        <v>653.572928201428</v>
+        <v>10292.87726005524</v>
       </c>
       <c r="S9">
-        <v>0.0002686414382206358</v>
+        <v>0.002641546950818832</v>
       </c>
       <c r="T9">
-        <v>0.0002686414382206358</v>
+        <v>0.002641546950818831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H10">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I10">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J10">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N10">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q10">
-        <v>1.057602245792667</v>
+        <v>0.8694663157440001</v>
       </c>
       <c r="R10">
-        <v>9.518420212133998</v>
+        <v>7.825196841696001</v>
       </c>
       <c r="S10">
-        <v>3.91240515792597E-06</v>
+        <v>2.008245540531035E-06</v>
       </c>
       <c r="T10">
-        <v>3.91240515792597E-06</v>
+        <v>2.008245540531034E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H11">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I11">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J11">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N11">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O11">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P11">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q11">
-        <v>75.17118100519244</v>
+        <v>547.761111171534</v>
       </c>
       <c r="R11">
-        <v>676.540629046732</v>
+        <v>4929.850000543806</v>
       </c>
       <c r="S11">
-        <v>0.0002780819702890053</v>
+        <v>0.001265188528718628</v>
       </c>
       <c r="T11">
-        <v>0.0002780819702890053</v>
+        <v>0.001265188528718627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H12">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I12">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J12">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N12">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O12">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P12">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q12">
-        <v>8902.777435754138</v>
+        <v>25603.63977442495</v>
       </c>
       <c r="R12">
-        <v>80124.99692178726</v>
+        <v>230432.7579698245</v>
       </c>
       <c r="S12">
-        <v>0.03293418910377371</v>
+        <v>0.05913788086701591</v>
       </c>
       <c r="T12">
-        <v>0.03293418910377371</v>
+        <v>0.0591378808670159</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H13">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I13">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J13">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N13">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q13">
-        <v>3.565656516480444</v>
+        <v>116.869655425302</v>
       </c>
       <c r="R13">
-        <v>32.090908648324</v>
+        <v>1051.826898827718</v>
       </c>
       <c r="S13">
-        <v>1.319049103948789E-05</v>
+        <v>0.0002699391110171147</v>
       </c>
       <c r="T13">
-        <v>1.319049103948789E-05</v>
+        <v>0.0002699391110171147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H14">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I14">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J14">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N14">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q14">
-        <v>1.708247462676666</v>
+        <v>0.5293377077973334</v>
       </c>
       <c r="R14">
-        <v>15.37422716409</v>
+        <v>4.764039370176</v>
       </c>
       <c r="S14">
-        <v>6.319347571904035E-06</v>
+        <v>1.222635163513234E-06</v>
       </c>
       <c r="T14">
-        <v>6.319347571904034E-06</v>
+        <v>1.222635163513233E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H15">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I15">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J15">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N15">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O15">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P15">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q15">
-        <v>121.4170825840911</v>
+        <v>333.4811317675374</v>
       </c>
       <c r="R15">
-        <v>1092.75374325682</v>
+        <v>3001.330185907836</v>
       </c>
       <c r="S15">
-        <v>0.0004491601847973453</v>
+        <v>0.0007702564016529247</v>
       </c>
       <c r="T15">
-        <v>0.0004491601847973453</v>
+        <v>0.0007702564016529245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H16">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I16">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J16">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N16">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O16">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P16">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q16">
-        <v>14379.83611126286</v>
+        <v>15587.69068341135</v>
       </c>
       <c r="R16">
-        <v>129418.5250013658</v>
+        <v>140289.2161507021</v>
       </c>
       <c r="S16">
-        <v>0.05319556118157504</v>
+        <v>0.03600359178417546</v>
       </c>
       <c r="T16">
-        <v>0.05319556118157503</v>
+        <v>0.03600359178417545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H17">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I17">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J17">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N17">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q17">
-        <v>5.75927643997111</v>
+        <v>71.15113535014534</v>
       </c>
       <c r="R17">
-        <v>51.83348795974</v>
+        <v>640.3602181513081</v>
       </c>
       <c r="S17">
-        <v>2.130538483565381E-05</v>
+        <v>0.0001643409844444402</v>
       </c>
       <c r="T17">
-        <v>2.130538483565381E-05</v>
+        <v>0.0001643409844444401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H18">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I18">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J18">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N18">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q18">
-        <v>6.422612276538665</v>
+        <v>3.252965783925334</v>
       </c>
       <c r="R18">
-        <v>57.80351048884798</v>
+        <v>29.276692055328</v>
       </c>
       <c r="S18">
-        <v>2.375927386505818E-05</v>
+        <v>7.513521698052249E-06</v>
       </c>
       <c r="T18">
-        <v>2.375927386505817E-05</v>
+        <v>7.513521698052246E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H19">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I19">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J19">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N19">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O19">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P19">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q19">
-        <v>456.4999288593669</v>
+        <v>2049.358462933896</v>
       </c>
       <c r="R19">
-        <v>4108.499359734303</v>
+        <v>18444.22616640506</v>
       </c>
       <c r="S19">
-        <v>0.001688737598059486</v>
+        <v>0.00473349561634807</v>
       </c>
       <c r="T19">
-        <v>0.001688737598059486</v>
+        <v>0.004733495616348068</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H20">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I20">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J20">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N20">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O20">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P20">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q20">
-        <v>54064.83191732499</v>
+        <v>95791.82381422675</v>
       </c>
       <c r="R20">
-        <v>486583.487255925</v>
+        <v>862126.4143280408</v>
       </c>
       <c r="S20">
-        <v>0.2000029104488213</v>
+        <v>0.2212546932650771</v>
       </c>
       <c r="T20">
-        <v>0.2000029104488213</v>
+        <v>0.221254693265077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H21">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I21">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J21">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N21">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q21">
-        <v>21.6535369585031</v>
+        <v>437.2486701251194</v>
       </c>
       <c r="R21">
-        <v>194.881832626528</v>
+        <v>3935.238031126074</v>
       </c>
       <c r="S21">
-        <v>8.010328081356615E-05</v>
+        <v>0.001009932962302865</v>
       </c>
       <c r="T21">
-        <v>8.010328081356615E-05</v>
+        <v>0.001009932962302865</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H22">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I22">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J22">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N22">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q22">
-        <v>0.5984520572186667</v>
+        <v>0.6992758004977778</v>
       </c>
       <c r="R22">
-        <v>5.386068514968</v>
+        <v>6.29348220448</v>
       </c>
       <c r="S22">
-        <v>2.213863411077446E-06</v>
+        <v>1.615148836156189E-06</v>
       </c>
       <c r="T22">
-        <v>2.213863411077445E-06</v>
+        <v>1.615148836156189E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H23">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I23">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J23">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N23">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O23">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P23">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q23">
-        <v>42.53616905134044</v>
+        <v>440.5416087548645</v>
       </c>
       <c r="R23">
-        <v>382.825521462064</v>
+        <v>3964.87447879378</v>
       </c>
       <c r="S23">
-        <v>0.0001573547407420127</v>
+        <v>0.001017538811084677</v>
       </c>
       <c r="T23">
-        <v>0.0001573547407420126</v>
+        <v>0.001017538811084677</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H24">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I24">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J24">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N24">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O24">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P24">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q24">
-        <v>5037.702494091975</v>
+        <v>20591.94861804087</v>
       </c>
       <c r="R24">
-        <v>45339.32244682778</v>
+        <v>185327.5375623678</v>
       </c>
       <c r="S24">
-        <v>0.01863605462298333</v>
+        <v>0.04756215190192679</v>
       </c>
       <c r="T24">
-        <v>0.01863605462298332</v>
+        <v>0.04756215190192678</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H25">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I25">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J25">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N25">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q25">
-        <v>2.017653126316445</v>
+        <v>93.99343065003779</v>
       </c>
       <c r="R25">
-        <v>18.158878136848</v>
+        <v>845.94087585034</v>
       </c>
       <c r="S25">
-        <v>7.463936966576224E-06</v>
+        <v>0.0002171008635114615</v>
       </c>
       <c r="T25">
-        <v>7.463936966576222E-06</v>
+        <v>0.0002171008635114614</v>
       </c>
     </row>
   </sheetData>
